--- a/config/yearly-company-budget.xlsx
+++ b/config/yearly-company-budget.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\utils\src\excel\evogene-jira-analist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\utils\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E79C21-5A54-43EB-9982-3938F1A44869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F5F6E4-C63B-417D-AF1A-C614048766F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>AgPlenus</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Company Name</t>
+  </si>
+  <si>
+    <t>Colors</t>
   </si>
 </sst>
 </file>
@@ -105,10 +108,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B13" sqref="B13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -569,6 +573,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/config/yearly-company-budget.xlsx
+++ b/config/yearly-company-budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\utils\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F5F6E4-C63B-417D-AF1A-C614048766F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53A8B3F-90C7-4CD7-93EE-85AEE8DCA04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>AgPlenus</t>
   </si>
@@ -33,9 +33,6 @@
     <t>LavieBio</t>
   </si>
   <si>
-    <t>AgSeed</t>
-  </si>
-  <si>
     <t>Biomica</t>
   </si>
   <si>
@@ -51,12 +48,6 @@
     <t>MicroBoost</t>
   </si>
   <si>
-    <t>BMB</t>
-  </si>
-  <si>
-    <t>Crispril</t>
-  </si>
-  <si>
     <t>Algo</t>
   </si>
   <si>
@@ -66,13 +57,25 @@
     <t>Bi</t>
   </si>
   <si>
-    <t>Castera</t>
-  </si>
-  <si>
     <t>Company Name</t>
   </si>
   <si>
     <t>Colors</t>
+  </si>
+  <si>
+    <t>The Kitchen</t>
+  </si>
+  <si>
+    <t>Corp4clima</t>
+  </si>
+  <si>
+    <t>Generator</t>
+  </si>
+  <si>
+    <t>Casterra</t>
+  </si>
+  <si>
+    <t>PRoduct</t>
   </si>
 </sst>
 </file>
@@ -393,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D13"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -407,183 +410,197 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>30.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>102</v>
+      </c>
+      <c r="C6" s="3">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>242</v>
-      </c>
-      <c r="C7" s="1">
-        <v>201</v>
-      </c>
-      <c r="D7" s="1">
-        <v>61.8</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <v>65</v>
+      </c>
+      <c r="C7" s="3">
+        <v>60</v>
+      </c>
+      <c r="D7" s="3">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1">
-        <v>171.6</v>
-      </c>
-      <c r="D8" s="1">
-        <v>279.60000000000002</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3">
+        <v>179</v>
+      </c>
+      <c r="D8" s="3">
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>247</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1">
-        <v>237</v>
+        <v>506</v>
       </c>
       <c r="D9" s="1">
-        <v>81.599999999999994</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>23.64</v>
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>293</v>
       </c>
       <c r="C10" s="1">
-        <v>19.68</v>
+        <v>145</v>
       </c>
       <c r="D10" s="1">
-        <v>39</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
+      <c r="A11" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B11" s="1">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="B12" s="3">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>0</v>
       </c>
     </row>

--- a/config/yearly-company-budget.xlsx
+++ b/config/yearly-company-budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\utils\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53A8B3F-90C7-4CD7-93EE-85AEE8DCA04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F69CB2E-5D87-4DDA-909D-27F8D9F7D818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,28 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>AgPlenus</t>
-  </si>
-  <si>
-    <t>LavieBio</t>
-  </si>
-  <si>
-    <t>Biomica</t>
-  </si>
-  <si>
-    <t>Canonic</t>
-  </si>
-  <si>
-    <t>CPB</t>
-  </si>
-  <si>
-    <t>Chempass</t>
-  </si>
-  <si>
-    <t>MicroBoost</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Algo</t>
   </si>
@@ -60,22 +39,58 @@
     <t>Company Name</t>
   </si>
   <si>
-    <t>Colors</t>
-  </si>
-  <si>
-    <t>The Kitchen</t>
-  </si>
-  <si>
-    <t>Corp4clima</t>
-  </si>
-  <si>
-    <t>Generator</t>
-  </si>
-  <si>
-    <t>Casterra</t>
-  </si>
-  <si>
-    <t>PRoduct</t>
+    <t>Devops</t>
+  </si>
+  <si>
+    <t>System Architect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. CPB 279 PROJECTS</t>
+  </si>
+  <si>
+    <t>2. CPB-271 UPKEEP</t>
+  </si>
+  <si>
+    <t>3. CPB - P-295 GCP Migration</t>
+  </si>
+  <si>
+    <t>4. CPB- P-296 Server rooms</t>
+  </si>
+  <si>
+    <t>5. Biomica (252, 258, 999)</t>
+  </si>
+  <si>
+    <t>6. LavieBio (145, 82, 85, 86, 999)</t>
+  </si>
+  <si>
+    <t>7. AgPlenus (22, 33, 285)</t>
+  </si>
+  <si>
+    <t>8. Chempass (274, 264)</t>
+  </si>
+  <si>
+    <t>9. MicroBoost (265, 273)</t>
+  </si>
+  <si>
+    <t>90. Castera (401, 402)</t>
+  </si>
+  <si>
+    <t>91. Colors (290)</t>
+  </si>
+  <si>
+    <t>92. GENERATOR (272)</t>
+  </si>
+  <si>
+    <t>93. Kitchen (401)</t>
+  </si>
+  <si>
+    <t>94. VERB (165)</t>
+  </si>
+  <si>
+    <t>95.Crop4Clima (400)</t>
+  </si>
+  <si>
+    <t>96. Canonic</t>
   </si>
 </sst>
 </file>
@@ -99,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -107,15 +122,141 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,213 +537,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5">
+        <v>95</v>
+      </c>
+      <c r="D2" s="5">
+        <v>105</v>
+      </c>
+      <c r="E2" s="5">
+        <v>134</v>
+      </c>
+      <c r="F2" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5">
+        <v>35</v>
+      </c>
+      <c r="C3" s="5">
+        <v>190</v>
+      </c>
+      <c r="D3" s="5">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5">
+        <v>411</v>
+      </c>
+      <c r="F3" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>120</v>
+      </c>
+      <c r="D4" s="5">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5">
+        <v>40</v>
+      </c>
+      <c r="F4" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
+        <v>25</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B6" s="5">
+        <v>210</v>
+      </c>
+      <c r="C6" s="5">
+        <v>51</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10.7</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>48.3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>34.6</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
+        <v>71</v>
+      </c>
+      <c r="D8" s="5">
+        <v>139</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5">
+        <v>108</v>
+      </c>
+      <c r="D9" s="5">
+        <v>155</v>
+      </c>
+      <c r="E9" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
+        <v>142</v>
+      </c>
+      <c r="C10" s="5">
+        <v>95</v>
+      </c>
+      <c r="D10" s="5">
+        <v>40</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5">
+        <v>64.5</v>
+      </c>
+      <c r="C11" s="5">
+        <v>15.2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>210</v>
-      </c>
-      <c r="C2" s="1">
-        <v>71</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5">
+        <v>7</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>63</v>
-      </c>
-      <c r="C3" s="1">
-        <v>48</v>
-      </c>
-      <c r="D3" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="5">
+        <v>10</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="5">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
-        <v>102</v>
-      </c>
-      <c r="C6" s="3">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
-        <v>65</v>
-      </c>
-      <c r="C7" s="3">
-        <v>60</v>
-      </c>
-      <c r="D7" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3">
-        <v>179</v>
-      </c>
-      <c r="D8" s="3">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1">
-        <v>67</v>
-      </c>
-      <c r="C9" s="1">
-        <v>506</v>
-      </c>
-      <c r="D9" s="1">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1">
-        <v>293</v>
-      </c>
-      <c r="C10" s="1">
-        <v>145</v>
-      </c>
-      <c r="D10" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3">
-        <v>30</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/yearly-company-budget.xlsx
+++ b/config/yearly-company-budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\utils\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F69CB2E-5D87-4DDA-909D-27F8D9F7D818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898E0E83-3F09-434E-8497-5DFB4022E1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <t>95.Crop4Clima (400)</t>
   </si>
   <si>
-    <t>96. Canonic</t>
+    <t>96. Canonic (213, 216)</t>
   </si>
 </sst>
 </file>
@@ -114,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -198,21 +198,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -246,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -256,7 +241,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,7 +524,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -830,20 +814,20 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="8">
-        <v>0</v>
-      </c>
-      <c r="C17" s="8">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/yearly-company-budget.xlsx
+++ b/config/yearly-company-budget.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\utils\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898E0E83-3F09-434E-8497-5DFB4022E1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E0D491-814B-4DD4-B2D2-6C5E626DC65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -45,9 +54,6 @@
     <t>System Architect</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1. CPB 279 PROJECTS</t>
-  </si>
-  <si>
     <t>2. CPB-271 UPKEEP</t>
   </si>
   <si>
@@ -66,6 +72,9 @@
     <t>7. AgPlenus (22, 33, 285)</t>
   </si>
   <si>
+    <t>1. CPB 279 PROJECTS</t>
+  </si>
+  <si>
     <t>8. Chempass (274, 264)</t>
   </si>
   <si>
@@ -87,10 +96,10 @@
     <t>94. VERB (165)</t>
   </si>
   <si>
+    <t>96. Canonic (213, 216)</t>
+  </si>
+  <si>
     <t>95.Crop4Clima (400)</t>
-  </si>
-  <si>
-    <t>96. Canonic (213, 216)</t>
   </si>
 </sst>
 </file>
@@ -523,13 +532,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="123" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
@@ -557,7 +566,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5">
         <v>32</v>
@@ -577,7 +586,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5">
         <v>35</v>
@@ -597,7 +606,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -617,11 +626,17 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
       <c r="E5" s="5">
         <v>25</v>
       </c>
@@ -629,7 +644,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5">
         <v>210</v>
@@ -645,7 +660,7 @@
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5">
         <v>62.5</v>
@@ -661,7 +676,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5">
         <v>14</v>
@@ -761,7 +776,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F13" s="6"/>
     </row>
@@ -799,7 +814,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="5">
         <v>6</v>
@@ -815,7 +830,7 @@
     </row>
     <row r="17" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="7">
         <v>0</v>
